--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,21 +442,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>90</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -457,37 +457,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,32 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>126</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -482,12 +482,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -452,42 +452,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -482,12 +482,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,52 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -457,37 +457,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>179</v>
       </c>
     </row>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -457,37 +457,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,21 @@
         <v>179</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,16 +452,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>79</v>
       </c>
     </row>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,32 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>115</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -447,47 +447,47 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -442,52 +442,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -472,22 +472,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -457,37 +457,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -447,47 +447,47 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/ranks.xlsx
+++ b/ranks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,52 +442,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>228</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>207</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>185</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
